--- a/TestDocumentation/Bug_reports.xlsx
+++ b/TestDocumentation/Bug_reports.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akang\Documents\GitHub\Portfolio\TestDocumentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFE3D86-ADD9-46D6-91FE-30A36CD3FBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bug Reports" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +24,154 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Attachment</t>
+  </si>
+  <si>
+    <t>Steps to reproduce</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>Win10, Chrome v106.0.5249.91</t>
+  </si>
+  <si>
+    <t>Bug1</t>
+  </si>
+  <si>
+    <t>Bug2</t>
+  </si>
+  <si>
+    <t>Bug3</t>
+  </si>
+  <si>
+    <t>Bug4</t>
+  </si>
+  <si>
+    <t>iPadOS v15.6.1, Safari, iPad 7 10,2”</t>
+  </si>
+  <si>
+    <t>Справа на странице названия разделов видны не полностью</t>
+  </si>
+  <si>
+    <t>Сообщение об успешной подписке на рассылку отображается на страницах всех новостных статей со страницы News and Analysis даже после логаута пользователя</t>
+  </si>
+  <si>
+    <t>Сообщение об успешной подписке "Congratulations! You've been subscribed." не исчезает после того, как пользователь разлогинился</t>
+  </si>
+  <si>
+    <t>Сообщение об успешной подписке "Congratulations! You've been subscribed." исчезает после того, как пользователь разлогинился, появляется кнопка Subscribe</t>
+  </si>
+  <si>
+    <t>Кнопки Share Article перекрываются хедером в статьях из раздела Data Journalism при разрешении экрана по ширине от 992 до 1299 пикселей</t>
+  </si>
+  <si>
+    <t>Кнопки Share Article перекрываются хедером</t>
+  </si>
+  <si>
+    <t>Кнопки Share Article находятся ниже хедера</t>
+  </si>
+  <si>
+    <t>Названия подразделов выходят за рамки экрана в главном меню в разделе News and Analysis  после изменения ориентации экрана на мобильном устройстве с альбомной на портретную</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Названия подразделов видны полностью </t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>1. Открыт сайт ProjectName</t>
+  </si>
+  <si>
+    <t>1. Открыт сайт ProjectName на мобильном устройстве
+2. Мобильное устройство имеет альбомную ориентацию экрана</t>
+  </si>
+  <si>
+    <t>1. Открыть главное бургер-меню на разделе News and Analysis 
+2. Изменить ориентацию экрана с альбомной на портретную</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фотографии авторов отображаются рядом с никами авторов </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Фото авторов не отображаюся рядом с никами авторов статей на странице News &gt; Economics
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Примечание</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: неполный путь к фотографиям в атрибуте "style" у тега "em"</t>
+    </r>
+  </si>
+  <si>
+    <t>Вместо фотографий отображаются заглушки, хотя в профилях авторов фотографии отображаются</t>
+  </si>
+  <si>
+    <t>1. Открыть страницу News and Analysis &gt; Data journalism через главное бургер-меню
+2. Открыть статью на странице
+3. Изменить разрешение страницы по ширине через DevTools от 992 до 1299 пикселей</t>
+  </si>
+  <si>
+    <t>1. Открыть страницу News and Analysis &gt; News &gt; Economics через главное бургер-меню
+2. Обратить внимание на фотографии авторов статей</t>
+  </si>
+  <si>
+    <t>1. Авторизоваться на сайте (login: example, password: example)
+2. Открыть страницу News and Analysis &gt; News через главное бургер-меню
+3. Открыть статью
+4. Нажать Subscribe в сайдбаре “What You Need to Know”
+5. Разлогиниться на сайте
+6. Обновить страницу</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +179,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +231,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +552,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="6" max="6" width="58.85546875" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>